--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -6830,7 +6830,11 @@
           <t>population behaviour</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr"/>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
           <t>An aggregate of individual human behaviours of members of a population.</t>
@@ -6868,7 +6872,7 @@
       <c r="V98" s="2" t="inlineStr"/>
       <c r="W98" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="X98" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -591,7 +591,7 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing healthcar</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
@@ -623,7 +623,7 @@
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -621,8 +621,10 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
@@ -683,8 +685,10 @@
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="n">
-        <v>0</v>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
@@ -725,7 +729,7 @@
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>personal life attribute</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
@@ -745,13 +749,15 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="X4" s="2" t="inlineStr">
@@ -807,8 +813,10 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="n">
-        <v>0</v>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V5" s="2" t="inlineStr"/>
       <c r="W5" s="2" t="inlineStr">
@@ -1429,8 +1437,10 @@
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
       <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="n">
-        <v>0</v>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V15" s="2" t="inlineStr"/>
       <c r="W15" s="2" t="inlineStr">
@@ -1491,8 +1501,10 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="n">
-        <v>0</v>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
@@ -1701,8 +1713,10 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -729,7 +729,7 @@
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>personal life attribute</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -601,7 +601,7 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
@@ -1669,68 +1669,68 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>BCIO:050455</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>behavioural duration</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>PS; BG</t>
+        </is>
+      </c>
+      <c r="X19" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -725,7 +725,7 @@
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>personal life attribute</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
@@ -1677,34 +1677,19 @@
           <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
         <v>0</v>
       </c>
-      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1715,8 +1700,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -3619,14 +3602,11 @@
           <t>function</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
           <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>disposition</t>
@@ -3642,23 +3622,11 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3669,8 +3637,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>‘expressive behaviour’ AND 'inter-personal behaviour'</t>
+          <t>'expressive behaviour' AND 'inter-personal behaviour'</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
       <c r="V64" s="2" t="inlineStr"/>
       <c r="W64" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>OC; PS; BG</t>
         </is>
       </c>
       <c r="X64" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -8640,7 +8640,7 @@
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>‘postural behaviour’ AND ‘expressive behaviour’</t>
+          <t>'postural behaviour' AND 'expressive behaviour'</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>
@@ -8678,7 +8678,7 @@
       <c r="V126" s="2" t="inlineStr"/>
       <c r="W126" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="X126" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -8640,7 +8640,7 @@
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>'postural behaviour' AND 'expressive behaviour'</t>
+          <t>'posture behaviour' AND 'expressive behaviour'</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y180"/>
+  <dimension ref="A1:Y182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10928,157 +10934,137 @@
       <c r="Y164" s="2" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr"/>
-      <c r="D165" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E165" s="2" t="inlineStr"/>
-      <c r="F165" s="2" t="inlineStr"/>
-      <c r="G165" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H165" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I165" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J165" s="2" t="inlineStr"/>
-      <c r="K165" s="2" t="inlineStr"/>
-      <c r="L165" s="2" t="inlineStr"/>
-      <c r="M165" s="2" t="inlineStr"/>
-      <c r="N165" s="2" t="inlineStr"/>
-      <c r="O165" s="2" t="inlineStr"/>
-      <c r="P165" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="Q165" s="2" t="inlineStr"/>
-      <c r="R165" s="2" t="inlineStr"/>
-      <c r="S165" s="2" t="inlineStr"/>
-      <c r="T165" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U165" s="2" t="inlineStr"/>
-      <c r="V165" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W165" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X165" s="2" t="inlineStr"/>
-      <c r="Y165" s="2" t="inlineStr"/>
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050495</t>
+        </is>
+      </c>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr"/>
+      <c r="D165" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E165" s="4" t="inlineStr"/>
+      <c r="F165" s="4" t="inlineStr"/>
+      <c r="G165" s="4" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
+      <c r="H165" s="4" t="inlineStr"/>
+      <c r="I165" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J165" s="4" t="inlineStr"/>
+      <c r="K165" s="4" t="inlineStr"/>
+      <c r="L165" s="4" t="inlineStr"/>
+      <c r="M165" s="4" t="inlineStr"/>
+      <c r="N165" s="4" t="inlineStr"/>
+      <c r="O165" s="4" t="inlineStr"/>
+      <c r="P165" s="4" t="inlineStr"/>
+      <c r="Q165" s="4" t="inlineStr"/>
+      <c r="R165" s="4" t="inlineStr"/>
+      <c r="S165" s="4" t="inlineStr"/>
+      <c r="T165" s="4" t="inlineStr"/>
+      <c r="U165" s="4" t="inlineStr"/>
+      <c r="V165" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="W165" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X165" s="4" t="inlineStr"/>
+      <c r="Y165" s="4" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036104</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr"/>
-      <c r="D166" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="E166" s="2" t="inlineStr"/>
-      <c r="F166" s="2" t="inlineStr"/>
-      <c r="G166" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H166" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I166" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J166" s="2" t="inlineStr"/>
-      <c r="K166" s="2" t="inlineStr"/>
-      <c r="L166" s="2" t="inlineStr"/>
-      <c r="M166" s="2" t="inlineStr"/>
-      <c r="N166" s="2" t="inlineStr"/>
-      <c r="O166" s="2" t="inlineStr"/>
-      <c r="P166" s="2" t="inlineStr"/>
-      <c r="Q166" s="2" t="inlineStr"/>
-      <c r="R166" s="2" t="inlineStr"/>
-      <c r="S166" s="2" t="inlineStr"/>
-      <c r="T166" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U166" s="2" t="inlineStr"/>
-      <c r="V166" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W166" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X166" s="2" t="inlineStr"/>
-      <c r="Y166" s="2" t="inlineStr"/>
+      <c r="A166" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050496</t>
+        </is>
+      </c>
+      <c r="B166" s="4" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr"/>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="E166" s="4" t="inlineStr"/>
+      <c r="F166" s="4" t="inlineStr"/>
+      <c r="G166" s="4" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
+      <c r="H166" s="4" t="inlineStr"/>
+      <c r="I166" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J166" s="4" t="inlineStr"/>
+      <c r="K166" s="4" t="inlineStr"/>
+      <c r="L166" s="4" t="inlineStr"/>
+      <c r="M166" s="4" t="inlineStr"/>
+      <c r="N166" s="4" t="inlineStr"/>
+      <c r="O166" s="4" t="inlineStr"/>
+      <c r="P166" s="4" t="inlineStr"/>
+      <c r="Q166" s="4" t="inlineStr"/>
+      <c r="R166" s="4" t="inlineStr"/>
+      <c r="S166" s="4" t="inlineStr"/>
+      <c r="T166" s="4" t="inlineStr"/>
+      <c r="U166" s="4" t="inlineStr"/>
+      <c r="V166" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="W166" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X166" s="4" t="inlineStr"/>
+      <c r="Y166" s="4" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr"/>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -11097,7 +11083,11 @@
       <c r="M167" s="2" t="inlineStr"/>
       <c r="N167" s="2" t="inlineStr"/>
       <c r="O167" s="2" t="inlineStr"/>
-      <c r="P167" s="2" t="inlineStr"/>
+      <c r="P167" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="Q167" s="2" t="inlineStr"/>
       <c r="R167" s="2" t="inlineStr"/>
       <c r="S167" s="2" t="inlineStr"/>
@@ -11109,7 +11099,7 @@
       <c r="U167" s="2" t="inlineStr"/>
       <c r="V167" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W167" s="2" t="inlineStr">
@@ -11123,25 +11113,25 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr"/>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -11160,11 +11150,7 @@
       <c r="M168" s="2" t="inlineStr"/>
       <c r="N168" s="2" t="inlineStr"/>
       <c r="O168" s="2" t="inlineStr"/>
-      <c r="P168" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="P168" s="2" t="inlineStr"/>
       <c r="Q168" s="2" t="inlineStr"/>
       <c r="R168" s="2" t="inlineStr"/>
       <c r="S168" s="2" t="inlineStr"/>
@@ -11176,7 +11162,7 @@
       <c r="U168" s="2" t="inlineStr"/>
       <c r="V168" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W168" s="2" t="inlineStr">
@@ -11190,25 +11176,25 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr"/>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -11227,11 +11213,7 @@
       <c r="M169" s="2" t="inlineStr"/>
       <c r="N169" s="2" t="inlineStr"/>
       <c r="O169" s="2" t="inlineStr"/>
-      <c r="P169" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="P169" s="2" t="inlineStr"/>
       <c r="Q169" s="2" t="inlineStr"/>
       <c r="R169" s="2" t="inlineStr"/>
       <c r="S169" s="2" t="inlineStr"/>
@@ -11243,7 +11225,7 @@
       <c r="U169" s="2" t="inlineStr"/>
       <c r="V169" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W169" s="2" t="inlineStr">
@@ -11257,29 +11239,25 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr"/>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -11298,14 +11276,13 @@
       <c r="M170" s="2" t="inlineStr"/>
       <c r="N170" s="2" t="inlineStr"/>
       <c r="O170" s="2" t="inlineStr"/>
-      <c r="P170" s="2" t="inlineStr"/>
+      <c r="P170" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="Q170" s="2" t="inlineStr"/>
-      <c r="R170" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="R170" s="2" t="inlineStr"/>
       <c r="S170" s="2" t="inlineStr"/>
       <c r="T170" s="2" t="inlineStr">
         <is>
@@ -11315,7 +11292,7 @@
       <c r="U170" s="2" t="inlineStr"/>
       <c r="V170" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W170" s="2" t="inlineStr">
@@ -11329,28 +11306,32 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr"/>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H171" s="2" t="inlineStr"/>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I171" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11362,14 +11343,14 @@
       <c r="M171" s="2" t="inlineStr"/>
       <c r="N171" s="2" t="inlineStr"/>
       <c r="O171" s="2" t="inlineStr"/>
-      <c r="P171" s="2" t="inlineStr"/>
+      <c r="P171" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="Q171" s="2" t="inlineStr"/>
       <c r="R171" s="2" t="inlineStr"/>
-      <c r="S171" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S171" s="2" t="inlineStr"/>
       <c r="T171" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11378,7 +11359,7 @@
       <c r="U171" s="2" t="inlineStr"/>
       <c r="V171" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W171" s="2" t="inlineStr">
@@ -11392,28 +11373,36 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
-      <c r="H172" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I172" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11427,7 +11416,12 @@
       <c r="O172" s="2" t="inlineStr"/>
       <c r="P172" s="2" t="inlineStr"/>
       <c r="Q172" s="2" t="inlineStr"/>
-      <c r="R172" s="2" t="inlineStr"/>
+      <c r="R172" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
       <c r="S172" s="2" t="inlineStr"/>
       <c r="T172" s="2" t="inlineStr">
         <is>
@@ -11437,7 +11431,7 @@
       <c r="U172" s="2" t="inlineStr"/>
       <c r="V172" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W172" s="2" t="inlineStr">
@@ -11451,25 +11445,25 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr"/>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -11486,13 +11480,12 @@
       <c r="O173" s="2" t="inlineStr"/>
       <c r="P173" s="2" t="inlineStr"/>
       <c r="Q173" s="2" t="inlineStr"/>
-      <c r="R173" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
-      <c r="S173" s="2" t="inlineStr"/>
+      <c r="R173" s="2" t="inlineStr"/>
+      <c r="S173" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="T173" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11501,7 +11494,7 @@
       <c r="U173" s="2" t="inlineStr"/>
       <c r="V173" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W173" s="2" t="inlineStr">
@@ -11515,25 +11508,25 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr"/>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr"/>
@@ -11550,11 +11543,7 @@
       <c r="O174" s="2" t="inlineStr"/>
       <c r="P174" s="2" t="inlineStr"/>
       <c r="Q174" s="2" t="inlineStr"/>
-      <c r="R174" s="2" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
-        </is>
-      </c>
+      <c r="R174" s="2" t="inlineStr"/>
       <c r="S174" s="2" t="inlineStr"/>
       <c r="T174" s="2" t="inlineStr">
         <is>
@@ -11564,7 +11553,7 @@
       <c r="U174" s="2" t="inlineStr"/>
       <c r="V174" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="W174" s="2" t="inlineStr">
@@ -11578,36 +11567,28 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">travel behaviour </t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr"/>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H175" s="2" t="inlineStr"/>
       <c r="I175" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11618,19 +11599,15 @@
       <c r="L175" s="2" t="inlineStr"/>
       <c r="M175" s="2" t="inlineStr"/>
       <c r="N175" s="2" t="inlineStr"/>
-      <c r="O175" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">u is a uniform process aggregate means:
-•	u instance_of process aggregate
-•	P is the set {p1,…pn} of process aggregate member parts of u
-•	X is some descendant of process
-•	Each of {p1,…pn} in P is instance_of X
-</t>
-        </is>
-      </c>
+      <c r="O175" s="2" t="inlineStr"/>
       <c r="P175" s="2" t="inlineStr"/>
       <c r="Q175" s="2" t="inlineStr"/>
-      <c r="R175" s="2" t="inlineStr"/>
+      <c r="R175" s="2" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+        </is>
+      </c>
       <c r="S175" s="2" t="inlineStr"/>
       <c r="T175" s="2" t="inlineStr">
         <is>
@@ -11640,7 +11617,7 @@
       <c r="U175" s="2" t="inlineStr"/>
       <c r="V175" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="W175" s="2" t="inlineStr">
@@ -11654,25 +11631,25 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>undergoing vaccination</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr"/>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr"/>
@@ -11691,7 +11668,7 @@
       <c r="Q176" s="2" t="inlineStr"/>
       <c r="R176" s="2" t="inlineStr">
         <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
       <c r="S176" s="2" t="inlineStr"/>
@@ -11703,7 +11680,7 @@
       <c r="U176" s="2" t="inlineStr"/>
       <c r="V176" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W176" s="2" t="inlineStr">
@@ -11717,28 +11694,36 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr"/>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="H177" s="2" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11749,7 +11734,16 @@
       <c r="L177" s="2" t="inlineStr"/>
       <c r="M177" s="2" t="inlineStr"/>
       <c r="N177" s="2" t="inlineStr"/>
-      <c r="O177" s="2" t="inlineStr"/>
+      <c r="O177" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">u is a uniform process aggregate means:
+•	u instance_of process aggregate
+•	P is the set {p1,…pn} of process aggregate member parts of u
+•	X is some descendant of process
+•	Each of {p1,…pn} in P is instance_of X
+</t>
+        </is>
+      </c>
       <c r="P177" s="2" t="inlineStr"/>
       <c r="Q177" s="2" t="inlineStr"/>
       <c r="R177" s="2" t="inlineStr"/>
@@ -11762,7 +11756,7 @@
       <c r="U177" s="2" t="inlineStr"/>
       <c r="V177" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W177" s="2" t="inlineStr">
@@ -11776,25 +11770,25 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr"/>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr"/>
@@ -11811,7 +11805,11 @@
       <c r="O178" s="2" t="inlineStr"/>
       <c r="P178" s="2" t="inlineStr"/>
       <c r="Q178" s="2" t="inlineStr"/>
-      <c r="R178" s="2" t="inlineStr"/>
+      <c r="R178" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="S178" s="2" t="inlineStr"/>
       <c r="T178" s="2" t="inlineStr">
         <is>
@@ -11835,32 +11833,28 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr"/>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="inlineStr"/>
       <c r="I179" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11884,7 +11878,7 @@
       <c r="U179" s="2" t="inlineStr"/>
       <c r="V179" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W179" s="2" t="inlineStr">
@@ -11898,25 +11892,25 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr"/>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr"/>
@@ -11934,11 +11928,7 @@
       <c r="P180" s="2" t="inlineStr"/>
       <c r="Q180" s="2" t="inlineStr"/>
       <c r="R180" s="2" t="inlineStr"/>
-      <c r="S180" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="S180" s="2" t="inlineStr"/>
       <c r="T180" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11947,7 +11937,7 @@
       <c r="U180" s="2" t="inlineStr"/>
       <c r="V180" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W180" s="2" t="inlineStr">
@@ -11957,6 +11947,132 @@
       </c>
       <c r="X180" s="2" t="inlineStr"/>
       <c r="Y180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036108</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr"/>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr"/>
+      <c r="L181" s="2" t="inlineStr"/>
+      <c r="M181" s="2" t="inlineStr"/>
+      <c r="N181" s="2" t="inlineStr"/>
+      <c r="O181" s="2" t="inlineStr"/>
+      <c r="P181" s="2" t="inlineStr"/>
+      <c r="Q181" s="2" t="inlineStr"/>
+      <c r="R181" s="2" t="inlineStr"/>
+      <c r="S181" s="2" t="inlineStr"/>
+      <c r="T181" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U181" s="2" t="inlineStr"/>
+      <c r="V181" s="2" t="inlineStr">
+        <is>
+          <t>RW; OC; JH</t>
+        </is>
+      </c>
+      <c r="W181" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X181" s="2" t="inlineStr"/>
+      <c r="Y181" s="2" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr"/>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr"/>
+      <c r="F182" s="2" t="inlineStr"/>
+      <c r="G182" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="inlineStr"/>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="inlineStr"/>
+      <c r="K182" s="2" t="inlineStr"/>
+      <c r="L182" s="2" t="inlineStr"/>
+      <c r="M182" s="2" t="inlineStr"/>
+      <c r="N182" s="2" t="inlineStr"/>
+      <c r="O182" s="2" t="inlineStr"/>
+      <c r="P182" s="2" t="inlineStr"/>
+      <c r="Q182" s="2" t="inlineStr"/>
+      <c r="R182" s="2" t="inlineStr"/>
+      <c r="S182" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="T182" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U182" s="2" t="inlineStr"/>
+      <c r="V182" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W182" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X182" s="2" t="inlineStr"/>
+      <c r="Y182" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y182"/>
+  <dimension ref="A1:Y183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10973,7 +10973,9 @@
       <c r="Q165" s="4" t="inlineStr"/>
       <c r="R165" s="4" t="inlineStr"/>
       <c r="S165" s="4" t="inlineStr"/>
-      <c r="T165" s="4" t="inlineStr"/>
+      <c r="T165" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="U165" s="4" t="inlineStr"/>
       <c r="V165" s="4" t="inlineStr">
         <is>
@@ -11028,7 +11030,9 @@
       <c r="Q166" s="4" t="inlineStr"/>
       <c r="R166" s="4" t="inlineStr"/>
       <c r="S166" s="4" t="inlineStr"/>
-      <c r="T166" s="4" t="inlineStr"/>
+      <c r="T166" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="U166" s="4" t="inlineStr"/>
       <c r="V166" s="4" t="inlineStr">
         <is>
@@ -11044,94 +11048,82 @@
       <c r="Y166" s="4" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr"/>
-      <c r="D167" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="inlineStr"/>
-      <c r="F167" s="2" t="inlineStr"/>
-      <c r="G167" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I167" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J167" s="2" t="inlineStr"/>
-      <c r="K167" s="2" t="inlineStr"/>
-      <c r="L167" s="2" t="inlineStr"/>
-      <c r="M167" s="2" t="inlineStr"/>
-      <c r="N167" s="2" t="inlineStr"/>
-      <c r="O167" s="2" t="inlineStr"/>
-      <c r="P167" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="Q167" s="2" t="inlineStr"/>
-      <c r="R167" s="2" t="inlineStr"/>
-      <c r="S167" s="2" t="inlineStr"/>
-      <c r="T167" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U167" s="2" t="inlineStr"/>
-      <c r="V167" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W167" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X167" s="2" t="inlineStr"/>
-      <c r="Y167" s="2" t="inlineStr"/>
+      <c r="A167" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050497</t>
+        </is>
+      </c>
+      <c r="B167" s="4" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr"/>
+      <c r="D167" s="4" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="E167" s="4" t="inlineStr"/>
+      <c r="F167" s="4" t="inlineStr"/>
+      <c r="G167" s="4" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
+      <c r="H167" s="4" t="inlineStr"/>
+      <c r="I167" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J167" s="4" t="inlineStr"/>
+      <c r="K167" s="4" t="inlineStr"/>
+      <c r="L167" s="4" t="inlineStr"/>
+      <c r="M167" s="4" t="inlineStr"/>
+      <c r="N167" s="4" t="inlineStr"/>
+      <c r="O167" s="4" t="inlineStr"/>
+      <c r="P167" s="4" t="inlineStr"/>
+      <c r="Q167" s="4" t="inlineStr"/>
+      <c r="R167" s="4" t="inlineStr"/>
+      <c r="S167" s="4" t="inlineStr"/>
+      <c r="T167" s="4" t="inlineStr"/>
+      <c r="U167" s="4" t="inlineStr"/>
+      <c r="V167" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="W167" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X167" s="4" t="inlineStr"/>
+      <c r="Y167" s="4" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr"/>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -11150,7 +11142,11 @@
       <c r="M168" s="2" t="inlineStr"/>
       <c r="N168" s="2" t="inlineStr"/>
       <c r="O168" s="2" t="inlineStr"/>
-      <c r="P168" s="2" t="inlineStr"/>
+      <c r="P168" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="Q168" s="2" t="inlineStr"/>
       <c r="R168" s="2" t="inlineStr"/>
       <c r="S168" s="2" t="inlineStr"/>
@@ -11176,25 +11172,25 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr"/>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -11225,7 +11221,7 @@
       <c r="U169" s="2" t="inlineStr"/>
       <c r="V169" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W169" s="2" t="inlineStr">
@@ -11239,25 +11235,25 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr"/>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -11276,11 +11272,7 @@
       <c r="M170" s="2" t="inlineStr"/>
       <c r="N170" s="2" t="inlineStr"/>
       <c r="O170" s="2" t="inlineStr"/>
-      <c r="P170" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="P170" s="2" t="inlineStr"/>
       <c r="Q170" s="2" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr"/>
       <c r="S170" s="2" t="inlineStr"/>
@@ -11292,7 +11284,7 @@
       <c r="U170" s="2" t="inlineStr"/>
       <c r="V170" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W170" s="2" t="inlineStr">
@@ -11306,25 +11298,25 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr"/>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -11359,7 +11351,7 @@
       <c r="U171" s="2" t="inlineStr"/>
       <c r="V171" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W171" s="2" t="inlineStr">
@@ -11373,29 +11365,25 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr"/>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -11414,14 +11402,13 @@
       <c r="M172" s="2" t="inlineStr"/>
       <c r="N172" s="2" t="inlineStr"/>
       <c r="O172" s="2" t="inlineStr"/>
-      <c r="P172" s="2" t="inlineStr"/>
+      <c r="P172" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="Q172" s="2" t="inlineStr"/>
-      <c r="R172" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="R172" s="2" t="inlineStr"/>
       <c r="S172" s="2" t="inlineStr"/>
       <c r="T172" s="2" t="inlineStr">
         <is>
@@ -11431,7 +11418,7 @@
       <c r="U172" s="2" t="inlineStr"/>
       <c r="V172" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W172" s="2" t="inlineStr">
@@ -11445,28 +11432,36 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H173" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I173" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11480,12 +11475,13 @@
       <c r="O173" s="2" t="inlineStr"/>
       <c r="P173" s="2" t="inlineStr"/>
       <c r="Q173" s="2" t="inlineStr"/>
-      <c r="R173" s="2" t="inlineStr"/>
-      <c r="S173" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="R173" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="S173" s="2" t="inlineStr"/>
       <c r="T173" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11494,7 +11490,7 @@
       <c r="U173" s="2" t="inlineStr"/>
       <c r="V173" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W173" s="2" t="inlineStr">
@@ -11508,25 +11504,25 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr"/>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr"/>
@@ -11544,7 +11540,11 @@
       <c r="P174" s="2" t="inlineStr"/>
       <c r="Q174" s="2" t="inlineStr"/>
       <c r="R174" s="2" t="inlineStr"/>
-      <c r="S174" s="2" t="inlineStr"/>
+      <c r="S174" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="T174" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11553,7 +11553,7 @@
       <c r="U174" s="2" t="inlineStr"/>
       <c r="V174" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W174" s="2" t="inlineStr">
@@ -11567,25 +11567,25 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr"/>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr"/>
@@ -11602,12 +11602,7 @@
       <c r="O175" s="2" t="inlineStr"/>
       <c r="P175" s="2" t="inlineStr"/>
       <c r="Q175" s="2" t="inlineStr"/>
-      <c r="R175" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="R175" s="2" t="inlineStr"/>
       <c r="S175" s="2" t="inlineStr"/>
       <c r="T175" s="2" t="inlineStr">
         <is>
@@ -11617,7 +11612,7 @@
       <c r="U175" s="2" t="inlineStr"/>
       <c r="V175" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="W175" s="2" t="inlineStr">
@@ -11631,25 +11626,25 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr"/>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr"/>
@@ -11668,7 +11663,8 @@
       <c r="Q176" s="2" t="inlineStr"/>
       <c r="R176" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="S176" s="2" t="inlineStr"/>
@@ -11680,7 +11676,7 @@
       <c r="U176" s="2" t="inlineStr"/>
       <c r="V176" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="W176" s="2" t="inlineStr">
@@ -11694,36 +11690,28 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr"/>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H177" s="2" t="inlineStr"/>
       <c r="I177" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11734,7 +11722,78 @@
       <c r="L177" s="2" t="inlineStr"/>
       <c r="M177" s="2" t="inlineStr"/>
       <c r="N177" s="2" t="inlineStr"/>
-      <c r="O177" s="2" t="inlineStr">
+      <c r="O177" s="2" t="inlineStr"/>
+      <c r="P177" s="2" t="inlineStr"/>
+      <c r="Q177" s="2" t="inlineStr"/>
+      <c r="R177" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="S177" s="2" t="inlineStr"/>
+      <c r="T177" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U177" s="2" t="inlineStr"/>
+      <c r="V177" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W177" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X177" s="2" t="inlineStr"/>
+      <c r="Y177" s="2" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr"/>
+      <c r="F178" s="2" t="inlineStr"/>
+      <c r="G178" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr"/>
+      <c r="K178" s="2" t="inlineStr"/>
+      <c r="L178" s="2" t="inlineStr"/>
+      <c r="M178" s="2" t="inlineStr"/>
+      <c r="N178" s="2" t="inlineStr"/>
+      <c r="O178" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -11744,72 +11803,9 @@
 </t>
         </is>
       </c>
-      <c r="P177" s="2" t="inlineStr"/>
-      <c r="Q177" s="2" t="inlineStr"/>
-      <c r="R177" s="2" t="inlineStr"/>
-      <c r="S177" s="2" t="inlineStr"/>
-      <c r="T177" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U177" s="2" t="inlineStr"/>
-      <c r="V177" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W177" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X177" s="2" t="inlineStr"/>
-      <c r="Y177" s="2" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr"/>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="inlineStr"/>
-      <c r="F178" s="2" t="inlineStr"/>
-      <c r="G178" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H178" s="2" t="inlineStr"/>
-      <c r="I178" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J178" s="2" t="inlineStr"/>
-      <c r="K178" s="2" t="inlineStr"/>
-      <c r="L178" s="2" t="inlineStr"/>
-      <c r="M178" s="2" t="inlineStr"/>
-      <c r="N178" s="2" t="inlineStr"/>
-      <c r="O178" s="2" t="inlineStr"/>
       <c r="P178" s="2" t="inlineStr"/>
       <c r="Q178" s="2" t="inlineStr"/>
-      <c r="R178" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="R178" s="2" t="inlineStr"/>
       <c r="S178" s="2" t="inlineStr"/>
       <c r="T178" s="2" t="inlineStr">
         <is>
@@ -11819,7 +11815,7 @@
       <c r="U178" s="2" t="inlineStr"/>
       <c r="V178" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W178" s="2" t="inlineStr">
@@ -11833,25 +11829,25 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr"/>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr"/>
@@ -11868,7 +11864,11 @@
       <c r="O179" s="2" t="inlineStr"/>
       <c r="P179" s="2" t="inlineStr"/>
       <c r="Q179" s="2" t="inlineStr"/>
-      <c r="R179" s="2" t="inlineStr"/>
+      <c r="R179" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="S179" s="2" t="inlineStr"/>
       <c r="T179" s="2" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
       <c r="U179" s="2" t="inlineStr"/>
       <c r="V179" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W179" s="2" t="inlineStr">
@@ -11892,25 +11892,25 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr"/>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr"/>
@@ -11937,7 +11937,7 @@
       <c r="U180" s="2" t="inlineStr"/>
       <c r="V180" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W180" s="2" t="inlineStr">
@@ -11951,32 +11951,28 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr"/>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H181" s="2" t="inlineStr"/>
       <c r="I181" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12000,7 +11996,7 @@
       <c r="U181" s="2" t="inlineStr"/>
       <c r="V181" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W181" s="2" t="inlineStr">
@@ -12014,28 +12010,32 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr"/>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
       <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H182" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I182" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12050,11 +12050,7 @@
       <c r="P182" s="2" t="inlineStr"/>
       <c r="Q182" s="2" t="inlineStr"/>
       <c r="R182" s="2" t="inlineStr"/>
-      <c r="S182" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="S182" s="2" t="inlineStr"/>
       <c r="T182" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12063,7 +12059,7 @@
       <c r="U182" s="2" t="inlineStr"/>
       <c r="V182" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W182" s="2" t="inlineStr">
@@ -12073,6 +12069,69 @@
       </c>
       <c r="X182" s="2" t="inlineStr"/>
       <c r="Y182" s="2" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr"/>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr"/>
+      <c r="F183" s="2" t="inlineStr"/>
+      <c r="G183" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H183" s="2" t="inlineStr"/>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J183" s="2" t="inlineStr"/>
+      <c r="K183" s="2" t="inlineStr"/>
+      <c r="L183" s="2" t="inlineStr"/>
+      <c r="M183" s="2" t="inlineStr"/>
+      <c r="N183" s="2" t="inlineStr"/>
+      <c r="O183" s="2" t="inlineStr"/>
+      <c r="P183" s="2" t="inlineStr"/>
+      <c r="Q183" s="2" t="inlineStr"/>
+      <c r="R183" s="2" t="inlineStr"/>
+      <c r="S183" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="T183" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U183" s="2" t="inlineStr"/>
+      <c r="V183" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W183" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X183" s="2" t="inlineStr"/>
+      <c r="Y183" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>abstinence duration</t>
+          <t>abstinence duration test</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>abstinence duration</t>
+          <t>abstinence duration1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>abstinence duration1</t>
+          <t>abstinence duration</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>abstinence duration</t>
+          <t>abstinence duration2</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -13615,103 +13609,111 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:000001</t>
-        </is>
-      </c>
-      <c r="B210" s="4" t="inlineStr">
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:999999</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C210" s="4" t="n"/>
-      <c r="D210" s="4" t="inlineStr">
+      <c r="C210" s="3" t="n"/>
+      <c r="D210" s="3" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="E210" s="4" t="n"/>
-      <c r="F210" s="4" t="n"/>
-      <c r="G210" s="4" t="inlineStr">
+      <c r="E210" s="3" t="n"/>
+      <c r="F210" s="3" t="n"/>
+      <c r="G210" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">test
 </t>
         </is>
       </c>
-      <c r="H210" s="4" t="n"/>
-      <c r="I210" s="4" t="n"/>
-      <c r="J210" s="4" t="n"/>
-      <c r="K210" s="4" t="n"/>
-      <c r="L210" s="4" t="n"/>
-      <c r="M210" s="4" t="n"/>
-      <c r="N210" s="4" t="n"/>
-      <c r="O210" s="4" t="n"/>
-      <c r="P210" s="4" t="n"/>
-      <c r="Q210" s="4" t="n"/>
-      <c r="R210" s="4" t="n"/>
-      <c r="S210" s="4" t="n"/>
-      <c r="T210" s="4" t="n">
+      <c r="H210" s="3" t="n"/>
+      <c r="I210" s="3" t="n"/>
+      <c r="J210" s="3" t="n"/>
+      <c r="K210" s="3" t="n"/>
+      <c r="L210" s="3" t="n"/>
+      <c r="M210" s="3" t="n"/>
+      <c r="N210" s="3" t="n"/>
+      <c r="O210" s="3" t="n"/>
+      <c r="P210" s="3" t="n"/>
+      <c r="Q210" s="3" t="n"/>
+      <c r="R210" s="3" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="S210" s="3" t="n"/>
+      <c r="T210" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U210" s="4" t="n"/>
-      <c r="V210" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="W210" s="4" t="n"/>
-      <c r="X210" s="4" t="n"/>
-      <c r="Y210" s="4" t="n"/>
+      <c r="U210" s="3" t="n"/>
+      <c r="V210" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="W210" s="3" t="n"/>
+      <c r="X210" s="3" t="n"/>
+      <c r="Y210" s="3" t="n"/>
     </row>
     <row r="211">
-      <c r="A211" s="4" t="inlineStr">
+      <c r="A211" s="3" t="inlineStr">
         <is>
           <t>BCIO:050917</t>
         </is>
       </c>
-      <c r="B211" s="4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C211" s="4" t="inlineStr"/>
-      <c r="D211" s="4" t="inlineStr">
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="n"/>
+      <c r="D211" s="3" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="E211" s="4" t="inlineStr"/>
-      <c r="F211" s="4" t="inlineStr"/>
-      <c r="G211" s="4" t="inlineStr">
+      <c r="E211" s="3" t="n"/>
+      <c r="F211" s="3" t="n"/>
+      <c r="G211" s="3" t="inlineStr">
         <is>
           <t>Test test</t>
         </is>
       </c>
-      <c r="H211" s="4" t="inlineStr"/>
-      <c r="I211" s="4" t="inlineStr"/>
-      <c r="J211" s="4" t="inlineStr"/>
-      <c r="K211" s="4" t="inlineStr"/>
-      <c r="L211" s="4" t="inlineStr"/>
-      <c r="M211" s="4" t="inlineStr"/>
-      <c r="N211" s="4" t="inlineStr"/>
-      <c r="O211" s="4" t="inlineStr"/>
-      <c r="P211" s="4" t="inlineStr"/>
-      <c r="Q211" s="4" t="inlineStr"/>
-      <c r="R211" s="4" t="inlineStr"/>
-      <c r="S211" s="4" t="inlineStr"/>
-      <c r="T211" s="4" t="n">
+      <c r="H211" s="3" t="n"/>
+      <c r="I211" s="3" t="n"/>
+      <c r="J211" s="3" t="n"/>
+      <c r="K211" s="3" t="n"/>
+      <c r="L211" s="3" t="n"/>
+      <c r="M211" s="3" t="n"/>
+      <c r="N211" s="3" t="n"/>
+      <c r="O211" s="3" t="n"/>
+      <c r="P211" s="3" t="n"/>
+      <c r="Q211" s="3" t="n"/>
+      <c r="R211" s="3" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="S211" s="3" t="n"/>
+      <c r="T211" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U211" s="4" t="inlineStr"/>
-      <c r="V211" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="W211" s="4" t="inlineStr"/>
-      <c r="X211" s="4" t="inlineStr"/>
-      <c r="Y211" s="4" t="inlineStr"/>
+      <c r="U211" s="3" t="n"/>
+      <c r="V211" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="W211" s="3" t="n"/>
+      <c r="X211" s="3" t="n"/>
+      <c r="Y211" s="3" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -13663,57 +13669,57 @@
       <c r="Y210" s="3" t="n"/>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="inlineStr">
+      <c r="A211" s="4" t="inlineStr">
         <is>
           <t>BCIO:050917</t>
         </is>
       </c>
-      <c r="B211" s="3" t="inlineStr">
+      <c r="B211" s="4" t="inlineStr">
         <is>
           <t>test2</t>
         </is>
       </c>
-      <c r="C211" s="3" t="n"/>
-      <c r="D211" s="3" t="inlineStr">
+      <c r="C211" s="4" t="n"/>
+      <c r="D211" s="4" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="E211" s="3" t="n"/>
-      <c r="F211" s="3" t="n"/>
-      <c r="G211" s="3" t="inlineStr">
+      <c r="E211" s="4" t="n"/>
+      <c r="F211" s="4" t="n"/>
+      <c r="G211" s="4" t="inlineStr">
         <is>
           <t>Test test</t>
         </is>
       </c>
-      <c r="H211" s="3" t="n"/>
-      <c r="I211" s="3" t="n"/>
-      <c r="J211" s="3" t="n"/>
-      <c r="K211" s="3" t="n"/>
-      <c r="L211" s="3" t="n"/>
-      <c r="M211" s="3" t="n"/>
-      <c r="N211" s="3" t="n"/>
-      <c r="O211" s="3" t="n"/>
-      <c r="P211" s="3" t="n"/>
-      <c r="Q211" s="3" t="n"/>
-      <c r="R211" s="3" t="inlineStr">
+      <c r="H211" s="4" t="n"/>
+      <c r="I211" s="4" t="n"/>
+      <c r="J211" s="4" t="n"/>
+      <c r="K211" s="4" t="n"/>
+      <c r="L211" s="4" t="n"/>
+      <c r="M211" s="4" t="n"/>
+      <c r="N211" s="4" t="n"/>
+      <c r="O211" s="4" t="n"/>
+      <c r="P211" s="4" t="n"/>
+      <c r="Q211" s="4" t="n"/>
+      <c r="R211" s="4" t="inlineStr">
         <is>
           <t>BG</t>
         </is>
       </c>
-      <c r="S211" s="3" t="n"/>
-      <c r="T211" s="3" t="n">
+      <c r="S211" s="4" t="n"/>
+      <c r="T211" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="U211" s="3" t="n"/>
-      <c r="V211" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="W211" s="3" t="n"/>
-      <c r="X211" s="3" t="n"/>
-      <c r="Y211" s="3" t="n"/>
+      <c r="U211" s="4" t="n"/>
+      <c r="V211" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="W211" s="4" t="n"/>
+      <c r="X211" s="4" t="n"/>
+      <c r="Y211" s="4" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="C211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="C211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="C211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="C211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13689,7 +13689,7 @@
       <c r="F211" s="4" t="n"/>
       <c r="G211" s="4" t="inlineStr">
         <is>
-          <t>Test test</t>
+          <t>Test test test</t>
         </is>
       </c>
       <c r="H211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13689,11 +13689,15 @@
       <c r="F211" s="4" t="n"/>
       <c r="G211" s="4" t="inlineStr">
         <is>
-          <t>Test test test</t>
+          <t>Test test</t>
         </is>
       </c>
       <c r="H211" s="4" t="n"/>
-      <c r="I211" s="4" t="n"/>
+      <c r="I211" s="4" t="inlineStr">
+        <is>
+          <t>This is a comment</t>
+        </is>
+      </c>
       <c r="J211" s="4" t="n"/>
       <c r="K211" s="4" t="n"/>
       <c r="L211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13689,7 +13689,7 @@
       <c r="F211" s="4" t="n"/>
       <c r="G211" s="4" t="inlineStr">
         <is>
-          <t>Test test test</t>
+          <t>Test test</t>
         </is>
       </c>
       <c r="H211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13689,11 +13689,15 @@
       <c r="F211" s="4" t="n"/>
       <c r="G211" s="4" t="inlineStr">
         <is>
-          <t>Test test</t>
+          <t>Test test test</t>
         </is>
       </c>
       <c r="H211" s="4" t="n"/>
-      <c r="I211" s="4" t="n"/>
+      <c r="I211" s="4" t="inlineStr">
+        <is>
+          <t>This is a comment</t>
+        </is>
+      </c>
       <c r="J211" s="4" t="n"/>
       <c r="K211" s="4" t="n"/>
       <c r="L211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13693,7 +13693,11 @@
         </is>
       </c>
       <c r="H211" s="4" t="n"/>
-      <c r="I211" s="4" t="n"/>
+      <c r="I211" s="4" t="inlineStr">
+        <is>
+          <t>This is a comment</t>
+        </is>
+      </c>
       <c r="J211" s="4" t="n"/>
       <c r="K211" s="4" t="n"/>
       <c r="L211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13689,7 +13689,7 @@
       <c r="F211" s="4" t="n"/>
       <c r="G211" s="4" t="inlineStr">
         <is>
-          <t>Test test</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="H211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13689,7 +13689,7 @@
       <c r="F211" s="4" t="n"/>
       <c r="G211" s="4" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Test test x3</t>
         </is>
       </c>
       <c r="H211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -13689,7 +13689,7 @@
       <c r="F211" s="4" t="n"/>
       <c r="G211" s="4" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Test x2</t>
         </is>
       </c>
       <c r="H211" s="4" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -585,14 +585,14 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Lorem ipsum dolor sit amet</t>
+          <t>Another conlict; different to Conflict 1</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
@@ -634,14 +634,14 @@
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>goal conflict</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>conspectur lorem</t>
+          <t>Lorem ipsum dolor sit amet</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -683,7 +683,7 @@
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>goal conflict</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="E4" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -683,14 +683,14 @@
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>conspectur lorem</t>
+          <t>Lorem ipsum dolor sit amet</t>
         </is>
       </c>
       <c r="H4" s="2" t="n"/>
@@ -726,20 +726,20 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Conflict2</t>
+          <t>Conflict3</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>goal conflict</t>
         </is>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Lorem ipsum dolor sit amet</t>
+          <t>conspectur lorem</t>
         </is>
       </c>
       <c r="H5" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -683,14 +683,14 @@
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>conspectur lorem</t>
+          <t>Lorem ipsum dolor sit amet</t>
         </is>
       </c>
       <c r="H4" s="2" t="n"/>
@@ -726,20 +726,20 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Conflict2</t>
+          <t>Conflict3</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Lorem ipsum dolor sit amet</t>
+          <t>conspectur lorem</t>
         </is>
       </c>
       <c r="H5" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -721,7 +721,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050918</t>
+          <t>BCIO:050917</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -623,12 +623,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050917</t>
+          <t>BCIO:050918</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Conflict1</t>
+          <t>Conflict2</t>
         </is>
       </c>
       <c r="C3" s="2" t="n"/>
@@ -641,7 +641,7 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Another conlict; different to Conflict 1</t>
+          <t>Lorem ipsum dolor sit amet</t>
         </is>
       </c>
       <c r="H3" s="2" t="n"/>
@@ -677,20 +677,20 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Conflict2</t>
+          <t>Conflict3</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Lorem ipsum dolor sit amet</t>
+          <t>conspectur lorem</t>
         </is>
       </c>
       <c r="H4" s="2" t="n"/>
@@ -726,20 +726,20 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Conflict3</t>
+          <t>Conflict4</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>conspectur lorem</t>
+          <t>Another conlict; different to Conflict 1</t>
         </is>
       </c>
       <c r="H5" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -623,12 +623,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050917</t>
+          <t>BCIO:050918</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Conflict1</t>
+          <t>Conflict2</t>
         </is>
       </c>
       <c r="C3" s="2" t="n"/>
@@ -641,7 +641,7 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Another conlict; different to Conflict 1</t>
+          <t>Lorem ipsum dolor sit amet</t>
         </is>
       </c>
       <c r="H3" s="2" t="n"/>
@@ -672,25 +672,25 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050918</t>
+          <t>BCIO:050917</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Conflict2</t>
+          <t>Conflict3</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Lorem ipsum dolor sit amet</t>
+          <t>conspectur lorem</t>
         </is>
       </c>
       <c r="H4" s="2" t="n"/>
@@ -726,20 +726,20 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Conflict3</t>
+          <t>Conflict4</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>conspectur lorem</t>
+          <t>Another conlict; different to Conflict 1</t>
         </is>
       </c>
       <c r="H5" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -721,7 +721,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050917</t>
+          <t>BCIO:050918</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -672,7 +672,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050917</t>
+          <t>BCIO:050919</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -721,7 +721,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050918</t>
+          <t>BCIO:050920</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -574,7 +574,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050917</t>
+          <t>BCIO:050921</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -721,7 +721,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050920</t>
+          <t>BCIO:050918</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -574,7 +574,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050917</t>
+          <t>BCIO:050921</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -770,7 +770,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050922</t>
+          <t>BCIO:050923</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -788,7 +788,7 @@
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -819,25 +819,25 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050923</t>
+          <t>BCIO:050924</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>X2</t>
         </is>
       </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Conflict1</t>
+          <t>Conflict3</t>
         </is>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H7" s="2" t="n"/>
@@ -868,25 +868,25 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050924</t>
+          <t>BCIO:050922</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>X2</t>
+          <t>X5</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Conflict3</t>
+          <t>Conflict1</t>
         </is>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="H8" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -824,7 +824,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>X2</t>
+          <t>X4</t>
         </is>
       </c>
       <c r="C7" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>X2</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>X2</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X1</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y229"/>
+  <dimension ref="A1:Y227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13615,146 +13609,161 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:999999</t>
-        </is>
-      </c>
-      <c r="B210" s="3" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C210" s="3" t="n"/>
-      <c r="D210" s="3" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="E210" s="3" t="n"/>
-      <c r="F210" s="3" t="n"/>
-      <c r="G210" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test
-</t>
-        </is>
-      </c>
-      <c r="H210" s="3" t="n"/>
-      <c r="I210" s="3" t="n"/>
-      <c r="J210" s="3" t="n"/>
-      <c r="K210" s="3" t="n"/>
-      <c r="L210" s="3" t="n"/>
-      <c r="M210" s="3" t="n"/>
-      <c r="N210" s="3" t="n"/>
-      <c r="O210" s="3" t="n"/>
-      <c r="P210" s="3" t="n"/>
-      <c r="Q210" s="3" t="n"/>
-      <c r="R210" s="3" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="S210" s="3" t="n"/>
-      <c r="T210" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U210" s="3" t="n"/>
-      <c r="V210" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="W210" s="3" t="n"/>
-      <c r="X210" s="3" t="n"/>
-      <c r="Y210" s="3" t="n"/>
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050840</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="n"/>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n"/>
+      <c r="F210" s="2" t="n"/>
+      <c r="G210" s="2" t="inlineStr">
+        <is>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="n"/>
+      <c r="I210" s="2" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+        </is>
+      </c>
+      <c r="J210" s="2" t="n"/>
+      <c r="K210" s="2" t="n"/>
+      <c r="L210" s="2" t="n"/>
+      <c r="M210" s="2" t="n"/>
+      <c r="N210" s="2" t="n"/>
+      <c r="O210" s="2" t="n"/>
+      <c r="P210" s="2" t="n"/>
+      <c r="Q210" s="2" t="n"/>
+      <c r="R210" s="2" t="n"/>
+      <c r="S210" s="2" t="n"/>
+      <c r="T210" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U210" s="2" t="n"/>
+      <c r="V210" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="W210" s="2" t="n"/>
+      <c r="X210" s="2" t="n"/>
+      <c r="Y210" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:050917</t>
-        </is>
-      </c>
-      <c r="B211" s="4" t="inlineStr">
-        <is>
-          <t>test4</t>
-        </is>
-      </c>
-      <c r="C211" s="4" t="n"/>
-      <c r="D211" s="4" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="E211" s="4" t="n"/>
-      <c r="F211" s="4" t="n"/>
-      <c r="G211" s="4" t="inlineStr">
-        <is>
-          <t>Test x2</t>
-        </is>
-      </c>
-      <c r="H211" s="4" t="n"/>
-      <c r="I211" s="4" t="inlineStr">
-        <is>
-          <t>This is a comment</t>
-        </is>
-      </c>
-      <c r="J211" s="4" t="n"/>
-      <c r="K211" s="4" t="n"/>
-      <c r="L211" s="4" t="n"/>
-      <c r="M211" s="4" t="n"/>
-      <c r="N211" s="4" t="n"/>
-      <c r="O211" s="4" t="n"/>
-      <c r="P211" s="4" t="n"/>
-      <c r="Q211" s="4" t="n"/>
-      <c r="R211" s="4" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="S211" s="4" t="n"/>
-      <c r="T211" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U211" s="4" t="n"/>
-      <c r="V211" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="W211" s="4" t="n"/>
-      <c r="X211" s="4" t="n"/>
-      <c r="Y211" s="4" t="n"/>
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036103</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="n"/>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n"/>
+      <c r="F211" s="2" t="n"/>
+      <c r="G211" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+        </is>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="n"/>
+      <c r="J211" s="2" t="n"/>
+      <c r="K211" s="2" t="n"/>
+      <c r="L211" s="2" t="n"/>
+      <c r="M211" s="2" t="n"/>
+      <c r="N211" s="2" t="n"/>
+      <c r="O211" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
+      <c r="P211" s="2" t="n"/>
+      <c r="Q211" s="2" t="n"/>
+      <c r="R211" s="2" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="S211" s="2" t="n"/>
+      <c r="T211" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U211" s="2" t="n"/>
+      <c r="V211" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="W211" s="2" t="n"/>
+      <c r="X211" s="2" t="n"/>
+      <c r="Y211" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>threat-reducing behaviour</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C212" s="2" t="n"/>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>goal-directed behaviour</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="E212" s="2" t="n"/>
       <c r="F212" s="2" t="n"/>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
-        </is>
-      </c>
-      <c r="H212" s="2" t="n"/>
-      <c r="I212" s="2" t="inlineStr">
-        <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
-        </is>
-      </c>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+        </is>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="n"/>
       <c r="J212" s="2" t="n"/>
       <c r="K212" s="2" t="n"/>
       <c r="L212" s="2" t="n"/>
@@ -13763,7 +13772,11 @@
       <c r="O212" s="2" t="n"/>
       <c r="P212" s="2" t="n"/>
       <c r="Q212" s="2" t="n"/>
-      <c r="R212" s="2" t="n"/>
+      <c r="R212" s="2" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
       <c r="S212" s="2" t="n"/>
       <c r="T212" s="2" t="inlineStr">
         <is>
@@ -13787,25 +13800,25 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C213" s="2" t="n"/>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="E213" s="2" t="n"/>
       <c r="F213" s="2" t="n"/>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
@@ -13819,16 +13832,12 @@
       <c r="L213" s="2" t="n"/>
       <c r="M213" s="2" t="n"/>
       <c r="N213" s="2" t="n"/>
-      <c r="O213" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="O213" s="2" t="n"/>
       <c r="P213" s="2" t="n"/>
       <c r="Q213" s="2" t="n"/>
       <c r="R213" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="S213" s="2" t="n"/>
@@ -13854,25 +13863,25 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C214" s="2" t="n"/>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="E214" s="2" t="n"/>
       <c r="F214" s="2" t="n"/>
       <c r="G214" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="H214" s="2" t="inlineStr">
@@ -13886,12 +13895,16 @@
       <c r="L214" s="2" t="n"/>
       <c r="M214" s="2" t="n"/>
       <c r="N214" s="2" t="n"/>
-      <c r="O214" s="2" t="n"/>
+      <c r="O214" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="P214" s="2" t="n"/>
       <c r="Q214" s="2" t="n"/>
       <c r="R214" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="S214" s="2" t="n"/>
@@ -13917,25 +13930,25 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="C215" s="2" t="n"/>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="E215" s="2" t="n"/>
       <c r="F215" s="2" t="n"/>
       <c r="G215" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="H215" s="2" t="inlineStr">
@@ -13949,12 +13962,16 @@
       <c r="L215" s="2" t="n"/>
       <c r="M215" s="2" t="n"/>
       <c r="N215" s="2" t="n"/>
-      <c r="O215" s="2" t="n"/>
+      <c r="O215" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="P215" s="2" t="n"/>
       <c r="Q215" s="2" t="n"/>
       <c r="R215" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="S215" s="2" t="n"/>
@@ -13980,25 +13997,29 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="n"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>individual human behaviour pattern cessation</t>
         </is>
       </c>
       <c r="E216" s="2" t="n"/>
       <c r="F216" s="2" t="n"/>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr">
@@ -14006,22 +14027,23 @@
           <t>process</t>
         </is>
       </c>
-      <c r="I216" s="2" t="n"/>
+      <c r="I216" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
       <c r="J216" s="2" t="n"/>
       <c r="K216" s="2" t="n"/>
       <c r="L216" s="2" t="n"/>
       <c r="M216" s="2" t="n"/>
       <c r="N216" s="2" t="n"/>
-      <c r="O216" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="O216" s="2" t="n"/>
       <c r="P216" s="2" t="n"/>
       <c r="Q216" s="2" t="n"/>
       <c r="R216" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="S216" s="2" t="n"/>
@@ -14047,51 +14069,47 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C217" s="2" t="n"/>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="E217" s="2" t="n"/>
       <c r="F217" s="2" t="n"/>
       <c r="G217" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
-        </is>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+        </is>
+      </c>
+      <c r="H217" s="2" t="n"/>
       <c r="I217" s="2" t="n"/>
       <c r="J217" s="2" t="n"/>
       <c r="K217" s="2" t="n"/>
       <c r="L217" s="2" t="n"/>
       <c r="M217" s="2" t="n"/>
       <c r="N217" s="2" t="n"/>
-      <c r="O217" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="O217" s="2" t="n"/>
       <c r="P217" s="2" t="n"/>
       <c r="Q217" s="2" t="n"/>
       <c r="R217" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="S217" s="2" t="n"/>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="S217" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="T217" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14114,42 +14132,29 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">transporting behaviour </t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="n"/>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="E218" s="2" t="n"/>
       <c r="F218" s="2" t="n"/>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
-        </is>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+        </is>
+      </c>
+      <c r="H218" s="2" t="n"/>
+      <c r="I218" s="2" t="n"/>
       <c r="J218" s="2" t="n"/>
       <c r="K218" s="2" t="n"/>
       <c r="L218" s="2" t="n"/>
@@ -14160,7 +14165,7 @@
       <c r="Q218" s="2" t="n"/>
       <c r="R218" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="S218" s="2" t="n"/>
@@ -14186,29 +14191,34 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C219" s="2" t="n"/>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="E219" s="2" t="n"/>
       <c r="F219" s="2" t="n"/>
       <c r="G219" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="H219" s="2" t="n"/>
-      <c r="I219" s="2" t="n"/>
+      <c r="I219" s="2" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+        </is>
+      </c>
       <c r="J219" s="2" t="n"/>
       <c r="K219" s="2" t="n"/>
       <c r="L219" s="2" t="n"/>
@@ -14219,14 +14229,10 @@
       <c r="Q219" s="2" t="n"/>
       <c r="R219" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="S219" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+          <t>OC; RW; PS</t>
+        </is>
+      </c>
+      <c r="S219" s="2" t="n"/>
       <c r="T219" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14249,29 +14255,33 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>undergoing vaccination</t>
         </is>
       </c>
       <c r="C220" s="2" t="n"/>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="E220" s="2" t="n"/>
       <c r="F220" s="2" t="n"/>
       <c r="G220" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="H220" s="2" t="n"/>
-      <c r="I220" s="2" t="n"/>
+      <c r="I220" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
       <c r="J220" s="2" t="n"/>
       <c r="K220" s="2" t="n"/>
       <c r="L220" s="2" t="n"/>
@@ -14282,7 +14292,7 @@
       <c r="Q220" s="2" t="n"/>
       <c r="R220" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="S220" s="2" t="n"/>
@@ -14308,37 +14318,49 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
-        </is>
-      </c>
-      <c r="C221" s="2" t="n"/>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="E221" s="2" t="n"/>
       <c r="F221" s="2" t="n"/>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
-        </is>
-      </c>
-      <c r="H221" s="2" t="n"/>
-      <c r="I221" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="n"/>
       <c r="J221" s="2" t="n"/>
       <c r="K221" s="2" t="n"/>
-      <c r="L221" s="2" t="n"/>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">u is a uniform process aggregate means:
+•	u instance_of process aggregate
+•	P is the set {p1,…pn} of process aggregate member parts of u
+•	X is some descendant of process
+•	Each of {p1,…pn} in P is instance_of X
+</t>
+        </is>
+      </c>
       <c r="M221" s="2" t="n"/>
       <c r="N221" s="2" t="n"/>
       <c r="O221" s="2" t="n"/>
@@ -14346,7 +14368,7 @@
       <c r="Q221" s="2" t="n"/>
       <c r="R221" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="S221" s="2" t="n"/>
@@ -14372,31 +14394,31 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C222" s="2" t="n"/>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="E222" s="2" t="n"/>
       <c r="F222" s="2" t="n"/>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="H222" s="2" t="n"/>
       <c r="I222" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
       <c r="J222" s="2" t="n"/>
@@ -14409,7 +14431,7 @@
       <c r="Q222" s="2" t="n"/>
       <c r="R222" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="S222" s="2" t="n"/>
@@ -14435,49 +14457,32 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>vaping device use</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="n"/>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="E223" s="2" t="n"/>
       <c r="F223" s="2" t="n"/>
       <c r="G223" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
-        </is>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="H223" s="2" t="n"/>
       <c r="I223" s="2" t="n"/>
       <c r="J223" s="2" t="n"/>
       <c r="K223" s="2" t="n"/>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">u is a uniform process aggregate means:
-•	u instance_of process aggregate
-•	P is the set {p1,…pn} of process aggregate member parts of u
-•	X is some descendant of process
-•	Each of {p1,…pn} in P is instance_of X
-</t>
-        </is>
-      </c>
+      <c r="L223" s="2" t="n"/>
       <c r="M223" s="2" t="n"/>
       <c r="N223" s="2" t="n"/>
       <c r="O223" s="2" t="n"/>
@@ -14485,7 +14490,7 @@
       <c r="Q223" s="2" t="n"/>
       <c r="R223" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="S223" s="2" t="n"/>
@@ -14511,33 +14516,29 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C224" s="2" t="n"/>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="E224" s="2" t="n"/>
       <c r="F224" s="2" t="n"/>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="H224" s="2" t="n"/>
-      <c r="I224" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="I224" s="2" t="n"/>
       <c r="J224" s="2" t="n"/>
       <c r="K224" s="2" t="n"/>
       <c r="L224" s="2" t="n"/>
@@ -14574,28 +14575,32 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C225" s="2" t="n"/>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t xml:space="preserve">locomotive behaviour </t>
         </is>
       </c>
       <c r="E225" s="2" t="n"/>
       <c r="F225" s="2" t="n"/>
       <c r="G225" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
-        </is>
-      </c>
-      <c r="H225" s="2" t="n"/>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I225" s="2" t="n"/>
       <c r="J225" s="2" t="n"/>
       <c r="K225" s="2" t="n"/>
@@ -14607,7 +14612,7 @@
       <c r="Q225" s="2" t="n"/>
       <c r="R225" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="S225" s="2" t="n"/>
@@ -14633,25 +14638,25 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>watching behaviour</t>
         </is>
       </c>
       <c r="C226" s="2" t="n"/>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="E226" s="2" t="n"/>
       <c r="F226" s="2" t="n"/>
       <c r="G226" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
         </is>
       </c>
       <c r="H226" s="2" t="n"/>
@@ -14666,10 +14671,14 @@
       <c r="Q226" s="2" t="n"/>
       <c r="R226" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
-        </is>
-      </c>
-      <c r="S226" s="2" t="n"/>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="S226" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
       <c r="T226" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14692,32 +14701,28 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050901</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>wider community behavioural consequence</t>
         </is>
       </c>
       <c r="C227" s="2" t="n"/>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>social behavioural consequence</t>
         </is>
       </c>
       <c r="E227" s="2" t="n"/>
       <c r="F227" s="2" t="n"/>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
+        </is>
+      </c>
+      <c r="H227" s="2" t="n"/>
       <c r="I227" s="2" t="n"/>
       <c r="J227" s="2" t="n"/>
       <c r="K227" s="2" t="n"/>
@@ -14729,7 +14734,7 @@
       <c r="Q227" s="2" t="n"/>
       <c r="R227" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="S227" s="2" t="n"/>
@@ -14747,128 +14752,6 @@
       <c r="W227" s="2" t="n"/>
       <c r="X227" s="2" t="n"/>
       <c r="Y227" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050418</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="n"/>
-      <c r="D228" s="2" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="n"/>
-      <c r="F228" s="2" t="n"/>
-      <c r="G228" s="2" t="inlineStr">
-        <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
-        </is>
-      </c>
-      <c r="H228" s="2" t="n"/>
-      <c r="I228" s="2" t="n"/>
-      <c r="J228" s="2" t="n"/>
-      <c r="K228" s="2" t="n"/>
-      <c r="L228" s="2" t="n"/>
-      <c r="M228" s="2" t="n"/>
-      <c r="N228" s="2" t="n"/>
-      <c r="O228" s="2" t="n"/>
-      <c r="P228" s="2" t="n"/>
-      <c r="Q228" s="2" t="n"/>
-      <c r="R228" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="S228" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
-      <c r="T228" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U228" s="2" t="n"/>
-      <c r="V228" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W228" s="2" t="n"/>
-      <c r="X228" s="2" t="n"/>
-      <c r="Y228" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050901</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>wider community behavioural consequence</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="n"/>
-      <c r="D229" s="2" t="inlineStr">
-        <is>
-          <t>social behavioural consequence</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="n"/>
-      <c r="F229" s="2" t="n"/>
-      <c r="G229" s="2" t="inlineStr">
-        <is>
-          <t>A social behavioural consequence that is beyond the person’s family.</t>
-        </is>
-      </c>
-      <c r="H229" s="2" t="n"/>
-      <c r="I229" s="2" t="n"/>
-      <c r="J229" s="2" t="n"/>
-      <c r="K229" s="2" t="n"/>
-      <c r="L229" s="2" t="n"/>
-      <c r="M229" s="2" t="n"/>
-      <c r="N229" s="2" t="n"/>
-      <c r="O229" s="2" t="n"/>
-      <c r="P229" s="2" t="n"/>
-      <c r="Q229" s="2" t="n"/>
-      <c r="R229" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="S229" s="2" t="n"/>
-      <c r="T229" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U229" s="2" t="n"/>
-      <c r="V229" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W229" s="2" t="n"/>
-      <c r="X229" s="2" t="n"/>
-      <c r="Y229" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>The time a person is abstinent from a behaviour.</t>
+          <t>The time a person is abstinent from a behaviour. Test</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>The time a person is abstinent from a behaviour. Test</t>
+          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -692,7 +692,7 @@
           <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
-      <c r="AH2" s="2" t="inlineStr"/>
+      <c r="AH2" s="2" t="n"/>
       <c r="AI2" s="2" t="inlineStr">
         <is>
           <t>temporal region</t>
@@ -853,7 +853,7 @@
       <c r="AF4" s="2" t="n"/>
       <c r="AG4" s="2" t="inlineStr">
         <is>
-          <t>Not performing a behaviour for some period of time.</t>
+          <t>Not performing a behaviour for some period of time.1</t>
         </is>
       </c>
       <c r="AH4" s="2" t="n"/>
